--- a/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV2.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,18 +17,22 @@
     <sheet name="converters" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$K$64</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$H$10</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$K$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$K$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$K$64</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$H$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$H$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -870,7 +874,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -898,12 +902,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -918,12 +916,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1010,12 +1002,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1044,47 +1036,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1192,23 +1180,25 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M54" activeCellId="0" sqref="M54"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8259109311741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.3643724696356"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.42105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,20 +3380,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="10.582995951417"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="6" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="6" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1018" min="11" style="6" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.78542510121457"/>
@@ -20896,7 +20886,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64"/>
+  <autoFilter ref="A1:K64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20922,16 +20912,17 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1457489878542"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.71255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.31174089068826"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1174089068826"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0242914979757"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.01214574898785"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.67611336032389"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -21560,20 +21551,20 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9311740890688"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1174089068826"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -21587,7 +21578,7 @@
       <c r="C1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -21615,10 +21606,10 @@
       <c r="C2" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>183</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -21649,7 +21640,7 @@
       <c r="F4" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>227</v>
       </c>
       <c r="H4" s="0" t="n">
@@ -21790,10 +21781,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.692307692308"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -22200,12 +22191,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -22271,7 +22262,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
